--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1826,45 +1826,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="92.67578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,262 +281,266 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3339,13 +3343,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3396,7 +3400,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3425,7 +3429,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3454,7 +3458,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3507,7 +3511,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3536,11 +3540,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3562,10 +3566,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3620,7 +3624,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3649,7 +3653,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3729,7 +3733,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3781,13 +3785,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3838,7 +3842,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3867,7 +3871,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3890,13 +3894,13 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3908,7 +3912,7 @@
         <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>79</v>
@@ -3923,13 +3927,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3947,7 +3951,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3965,18 +3969,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4002,10 +4006,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4056,7 +4060,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4085,7 +4089,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4108,13 +4112,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4165,7 +4169,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4194,7 +4198,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4223,7 +4227,7 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -4276,7 +4280,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4305,11 +4309,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4331,10 +4335,10 @@
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4389,7 +4393,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4422,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4441,13 +4445,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4474,13 +4478,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4498,7 +4502,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4527,7 +4531,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4550,13 +4554,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4607,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4659,16 +4663,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4694,13 +4698,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4718,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4733,21 +4737,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4770,13 +4774,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4803,13 +4807,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4827,7 +4831,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4846,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4851,12 +4855,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4879,13 +4883,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4912,13 +4916,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4936,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4954,22 +4958,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4988,16 +4992,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5047,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5062,21 +5066,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5099,13 +5103,13 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5156,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5171,25 +5175,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5208,13 +5212,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5265,7 +5269,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5280,10 +5284,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5294,7 +5298,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5320,10 +5324,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5374,7 +5378,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5389,21 +5393,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5426,13 +5430,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5483,7 +5487,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5512,7 +5516,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5541,7 +5545,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5594,7 +5598,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5623,11 +5627,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5649,10 +5653,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5707,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5740,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5759,16 +5763,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5794,13 +5798,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5818,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5833,21 +5837,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5870,13 +5874,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5927,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5945,18 +5949,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5979,13 +5983,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6036,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6051,21 +6055,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6088,13 +6092,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6145,7 +6149,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6160,21 +6164,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6197,16 +6201,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6256,7 +6260,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6271,21 +6275,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6308,13 +6312,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6365,7 +6369,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6394,7 +6398,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6423,7 +6427,7 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>135</v>
@@ -6464,19 +6468,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6505,7 +6509,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6528,16 +6532,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6587,7 +6591,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6596,7 +6600,7 @@
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
@@ -6605,18 +6609,18 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6639,23 +6643,23 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
@@ -6700,7 +6704,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6709,7 +6713,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6718,18 +6722,18 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6752,16 +6756,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6811,7 +6815,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6826,25 +6830,25 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6863,16 +6867,16 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6901,10 +6905,10 @@
         <v>110</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -6922,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6937,25 +6941,25 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6974,16 +6978,16 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7033,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7048,21 +7052,21 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7088,10 +7092,10 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7142,7 +7146,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7160,7 +7164,7 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -7171,7 +7175,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7194,13 +7198,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7251,7 +7255,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7280,7 +7284,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7309,7 +7313,7 @@
         <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>135</v>
@@ -7362,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7391,11 +7395,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7417,10 +7421,10 @@
         <v>132</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>135</v>
@@ -7475,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7504,11 +7508,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7527,16 +7531,16 @@
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7586,7 +7590,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>86</v>
@@ -7601,21 +7605,21 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7638,13 +7642,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7674,10 +7678,10 @@
         <v>110</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7695,7 +7699,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7724,7 +7728,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7747,13 +7751,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7804,7 +7808,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7822,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7833,7 +7837,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7856,16 +7860,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7915,7 +7919,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7933,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -7944,7 +7948,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7970,13 +7974,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8026,7 +8030,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8044,7 +8048,7 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
@@ -8055,7 +8059,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8078,13 +8082,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8135,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8164,7 +8168,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8193,7 +8197,7 @@
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>135</v>
@@ -8246,7 +8250,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8275,11 +8279,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8301,10 +8305,10 @@
         <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>135</v>
@@ -8359,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8388,7 +8392,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8414,10 +8418,10 @@
         <v>144</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8468,7 +8472,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8492,12 +8496,12 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8520,13 +8524,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8577,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8595,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
@@ -8606,7 +8610,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8629,13 +8633,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8665,10 +8669,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8686,7 +8690,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8704,18 +8708,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8738,13 +8742,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8771,13 +8775,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8795,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8819,12 +8823,12 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8847,19 +8851,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -8884,13 +8888,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8908,7 +8912,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8926,18 +8930,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8960,13 +8964,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8996,10 +9000,10 @@
         <v>110</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9017,7 +9021,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9035,18 +9039,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9069,13 +9073,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9105,10 +9109,10 @@
         <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9126,7 +9130,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9144,18 +9148,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9178,13 +9182,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9235,7 +9239,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9253,18 +9257,18 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9287,13 +9291,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9320,13 +9324,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9344,7 +9348,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9362,18 +9366,18 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9399,13 +9403,13 @@
         <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9455,7 +9459,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9473,7 +9477,7 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
@@ -9484,7 +9488,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9507,13 +9511,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9564,7 +9568,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9593,7 +9597,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9622,7 +9626,7 @@
         <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>135</v>
@@ -9675,7 +9679,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9704,11 +9708,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9730,10 +9734,10 @@
         <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>135</v>
@@ -9788,7 +9792,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9817,7 +9821,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9840,13 +9844,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9897,7 +9901,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>86</v>
@@ -9912,21 +9916,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9952,13 +9956,13 @@
         <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9987,10 +9991,10 @@
         <v>155</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10008,7 +10012,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10026,7 +10030,7 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
@@ -10037,7 +10041,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10060,16 +10064,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10095,13 +10099,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10119,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10148,7 +10152,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10171,13 +10175,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10228,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10246,7 +10250,7 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
@@ -10257,7 +10261,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10280,13 +10284,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10337,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10352,21 +10356,21 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10389,16 +10393,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10448,7 +10452,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10463,10 +10467,10 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +422,51 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>next-visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-care-next-visit}
+</t>
+  </si>
+  <si>
+    <t>Next Appointment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +474,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -553,6 +577,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -957,14 +984,7 @@
     <t>Encounter.period.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
@@ -1645,6 +1665,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1821,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1990,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2210,7 +2245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2541,7 +2576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2763,13 +2798,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2788,17 +2823,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2835,16 +2868,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2865,7 +2896,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2876,43 +2907,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2960,7 +2989,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2969,7 +2998,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -2978,7 +3007,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2987,13 +3016,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3006,22 +3035,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3081,24 +3114,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3106,32 +3139,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3156,13 +3187,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3180,13 +3211,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3195,21 +3226,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3217,31 +3248,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3267,13 +3298,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3291,13 +3322,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3306,19 +3337,19 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -3331,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3351,7 +3382,9 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3400,25 +3433,25 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3427,20 +3460,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3452,17 +3485,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3511,25 +3542,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3538,13 +3569,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3557,26 +3588,24 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3642,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3651,41 +3680,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3709,13 +3742,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3733,25 +3766,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3760,9 +3793,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3785,13 +3818,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3818,13 +3851,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3842,7 +3875,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3860,7 +3893,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3869,9 +3902,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3891,16 +3924,16 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3912,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>79</v>
@@ -3927,13 +3960,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3951,7 +3984,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3969,18 +4002,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3988,10 +4021,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4000,16 +4033,16 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4021,7 +4054,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -4036,13 +4069,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4060,13 +4093,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4078,18 +4111,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4100,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4115,10 +4148,10 @@
         <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4169,25 +4202,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4196,20 +4229,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4221,17 +4254,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4280,25 +4311,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4307,13 +4338,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4326,26 +4357,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4393,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4411,7 +4440,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4420,41 +4449,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4478,13 +4511,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4502,25 +4535,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4529,9 +4562,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4554,13 +4587,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4587,13 +4620,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4611,7 +4644,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4629,7 +4662,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4638,9 +4671,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4648,10 +4681,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4660,20 +4693,18 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4698,13 +4729,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4722,13 +4753,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4737,21 +4768,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4762,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4774,15 +4805,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4807,14 +4840,14 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4831,13 +4864,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4846,21 +4879,21 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4880,16 +4913,16 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4916,13 +4949,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4955,29 +4988,29 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -4989,20 +5022,18 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5027,13 +5058,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5066,32 +5097,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK29" t="s" s="2">
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5103,15 +5134,17 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5160,13 +5193,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5175,10 +5208,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>248</v>
@@ -5187,13 +5220,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5209,16 +5242,16 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5284,25 +5317,25 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5318,16 +5351,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5393,21 +5426,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5418,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5427,16 +5460,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5487,47 +5520,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5539,17 +5572,15 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5598,25 +5629,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5625,13 +5656,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5644,26 +5675,24 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5711,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5729,7 +5758,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5738,13 +5767,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5757,24 +5786,26 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5798,13 +5829,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5834,24 +5865,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>273</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5862,7 +5893,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5871,18 +5902,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5907,13 +5940,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5931,13 +5964,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -5946,21 +5979,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5980,16 +6013,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6040,7 +6073,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6055,21 +6088,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM38" t="s" s="2">
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>286</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6092,13 +6125,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6149,13 +6182,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6164,21 +6197,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6189,7 +6222,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6198,20 +6231,18 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6260,13 +6291,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6275,21 +6306,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM40" t="s" s="2">
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6312,15 +6343,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6369,7 +6402,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6381,35 +6414,35 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6421,17 +6454,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6468,37 +6499,37 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6507,20 +6538,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6529,19 +6560,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6579,48 +6610,48 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6628,7 +6659,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6643,24 +6674,22 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6704,7 +6733,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6713,7 +6742,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6722,18 +6751,18 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6753,25 +6782,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6815,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6824,38 +6855,38 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6864,19 +6895,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6902,13 +6933,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -6926,13 +6957,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -6941,25 +6972,25 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6978,16 +7009,16 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7013,13 +7044,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7068,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7052,25 +7083,25 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7089,15 +7120,17 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7146,7 +7179,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7161,21 +7194,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7186,7 +7219,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7195,16 +7228,16 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7255,25 +7288,25 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7282,20 +7315,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7307,17 +7340,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7366,25 +7397,25 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7393,13 +7424,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7412,26 +7443,24 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7479,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7497,7 +7526,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7506,43 +7535,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>353</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7590,44 +7621,44 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7639,18 +7670,20 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7675,13 +7708,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7699,10 +7732,10 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7714,19 +7747,19 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>364</v>
       </c>
@@ -7751,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7784,13 +7817,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -7826,7 +7859,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7835,7 +7868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>369</v>
       </c>
@@ -7848,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -7868,9 +7901,7 @@
       <c r="L55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -7925,7 +7956,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -7937,18 +7968,18 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7959,7 +7990,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -7971,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>376</v>
@@ -8030,13 +8061,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>380</v>
       </c>
@@ -8085,12 +8116,14 @@
         <v>169</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8151,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8166,20 +8199,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8191,17 +8224,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8250,25 +8281,25 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8277,13 +8308,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8296,26 +8327,24 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8363,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8381,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -8390,41 +8419,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8472,36 +8505,36 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8524,7 +8557,7 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>389</v>
@@ -8581,7 +8614,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8599,16 +8632,16 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>392</v>
       </c>
@@ -8633,13 +8666,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8666,13 +8699,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8708,18 +8741,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8742,13 +8775,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8775,13 +8808,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8799,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8817,18 +8850,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>404</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8839,7 +8872,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -8851,20 +8884,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8888,13 +8917,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8912,13 +8941,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -8930,18 +8959,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>173</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8964,16 +8993,20 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -8997,13 +9030,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9021,7 +9054,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9039,18 +9072,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9073,13 +9106,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9109,10 +9142,10 @@
         <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9130,7 +9163,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9148,18 +9181,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9170,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9182,13 +9215,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9215,13 +9248,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9239,13 +9272,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9266,7 +9299,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>433</v>
       </c>
@@ -9291,7 +9324,7 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>434</v>
@@ -9324,13 +9357,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9366,18 +9399,18 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9388,7 +9421,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9400,17 +9433,15 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -9435,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9459,13 +9490,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9477,16 +9508,16 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>445</v>
       </c>
@@ -9499,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9514,12 +9545,14 @@
         <v>169</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9568,25 +9601,25 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>167</v>
+        <v>449</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9595,20 +9628,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -9620,17 +9653,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -9679,25 +9710,25 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9706,13 +9737,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9725,26 +9756,24 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -9792,7 +9821,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9810,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9819,41 +9848,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -9901,36 +9934,36 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9938,7 +9971,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -9953,17 +9986,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -9988,13 +10019,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10012,10 +10043,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10027,21 +10058,21 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10064,16 +10095,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10099,13 +10130,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10123,7 +10154,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10141,7 +10172,7 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
@@ -10150,9 +10181,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10175,15 +10206,17 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10208,13 +10241,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10232,7 +10265,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10250,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
@@ -10259,9 +10292,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10284,13 +10317,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>472</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10341,7 +10374,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10356,21 +10389,21 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
         <v>476</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10393,17 +10426,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -10452,7 +10483,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10467,19 +10498,148 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM79">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI78">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,21 +419,21 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -446,25 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>next-visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-care-next-visit}
-</t>
-  </si>
-  <si>
-    <t>Next Appointment Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -474,9 +453,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -577,9 +553,6 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -984,7 +957,14 @@
     <t>Encounter.period.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
@@ -1665,21 +1645,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1856,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2025,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2134,7 +2099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2245,7 +2210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2354,7 +2319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2465,7 +2430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2576,7 +2541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2687,7 +2652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2798,13 +2763,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2823,15 +2788,17 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2868,14 +2835,16 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2896,7 +2865,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2907,41 +2876,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2989,7 +2960,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2998,7 +2969,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3007,7 +2978,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3016,13 +2987,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3035,26 +3006,22 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3102,7 +3069,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3114,24 +3081,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3139,30 +3106,32 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3187,13 +3156,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3211,13 +3180,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3226,21 +3195,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3248,31 +3217,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3298,37 +3267,37 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3337,19 +3306,19 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -3362,7 +3331,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3382,9 +3351,7 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3433,47 +3400,47 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3485,15 +3452,17 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3542,25 +3511,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3569,13 +3538,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3588,24 +3557,26 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3653,7 +3624,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3671,7 +3642,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3680,45 +3651,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3742,13 +3709,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3766,25 +3733,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3793,9 +3760,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3818,13 +3785,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3851,13 +3818,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3875,7 +3842,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3893,7 +3860,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3902,9 +3869,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3924,16 +3891,16 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3945,7 +3912,7 @@
         <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>79</v>
@@ -3960,13 +3927,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3984,7 +3951,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4002,18 +3969,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4021,10 +3988,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4033,16 +4000,16 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4054,52 +4021,52 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AF20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4111,18 +4078,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4133,7 +4100,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4148,10 +4115,10 @@
         <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4202,25 +4169,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4229,20 +4196,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4254,15 +4221,17 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4311,25 +4280,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4338,13 +4307,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4357,24 +4326,26 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4422,7 +4393,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4449,45 +4420,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4511,13 +4478,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4535,25 +4502,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4562,9 +4529,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4587,13 +4554,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4620,13 +4587,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4644,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4662,7 +4629,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4671,9 +4638,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4681,10 +4648,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4693,18 +4660,20 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4729,13 +4698,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4753,13 +4722,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4768,21 +4737,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4793,7 +4762,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4805,17 +4774,15 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4840,13 +4807,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4864,13 +4831,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4879,21 +4846,21 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>226</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4913,16 +4880,16 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4949,13 +4916,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4973,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4988,29 +4955,29 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5022,18 +4989,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5058,13 +5027,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5097,32 +5066,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5134,17 +5103,15 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5193,13 +5160,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5208,10 +5175,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>248</v>
@@ -5220,13 +5187,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5242,16 +5209,16 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5317,25 +5284,25 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5351,16 +5318,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5426,21 +5393,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK32" t="s" s="2">
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5451,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5460,16 +5427,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5520,47 +5487,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5572,15 +5539,17 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5629,25 +5598,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5656,13 +5625,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5675,24 +5644,26 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5740,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5758,7 +5729,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5767,13 +5738,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5786,26 +5757,24 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5829,13 +5798,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5853,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5865,24 +5834,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5893,7 +5862,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5902,20 +5871,18 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
         <v>276</v>
       </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5940,13 +5907,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5964,13 +5931,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -5979,21 +5946,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK37" t="s" s="2">
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6013,16 +5980,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6073,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6088,21 +6055,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6113,7 +6080,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6125,13 +6092,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6182,13 +6149,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6197,21 +6164,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM39" t="s" s="2">
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>293</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6222,7 +6189,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6231,18 +6198,20 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6291,13 +6260,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6306,21 +6275,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6343,17 +6312,15 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6402,7 +6369,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6414,35 +6381,35 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6454,15 +6421,17 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6499,37 +6468,37 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6538,20 +6507,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6560,19 +6529,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6610,48 +6579,48 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6659,7 +6628,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6674,22 +6643,24 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6733,7 +6704,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6742,7 +6713,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6751,18 +6722,18 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6782,27 +6753,25 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6846,7 +6815,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6855,38 +6824,38 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6895,19 +6864,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6933,13 +6902,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -6957,13 +6926,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -6972,25 +6941,25 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7009,16 +6978,16 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7044,31 +7013,31 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7083,25 +7052,25 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7120,17 +7089,15 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7179,7 +7146,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7194,21 +7161,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7219,7 +7186,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7228,16 +7195,16 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7288,47 +7255,47 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7340,15 +7307,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7397,25 +7366,25 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7424,13 +7393,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7443,24 +7412,26 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7508,7 +7479,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7526,7 +7497,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7535,45 +7506,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7621,44 +7590,44 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7670,20 +7639,18 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>358</v>
+        <v>210</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7708,13 +7675,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7732,10 +7699,10 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7747,19 +7714,19 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>364</v>
       </c>
@@ -7784,13 +7751,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7817,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -7859,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>173</v>
+        <v>368</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7868,7 +7835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>369</v>
       </c>
@@ -7881,7 +7848,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -7901,7 +7868,9 @@
       <c r="L55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -7956,7 +7925,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -7977,9 +7946,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7990,7 +7959,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8002,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>376</v>
@@ -8061,13 +8030,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>380</v>
       </c>
@@ -8116,14 +8085,12 @@
         <v>169</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8172,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8184,13 +8151,13 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>167</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8199,20 +8166,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8224,15 +8191,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8281,25 +8250,25 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8308,13 +8277,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8327,24 +8296,26 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8392,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8410,7 +8381,7 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -8419,45 +8390,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8505,36 +8472,36 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8557,7 +8524,7 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>389</v>
@@ -8614,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8632,16 +8599,16 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>392</v>
       </c>
@@ -8666,13 +8633,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8699,13 +8666,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8741,18 +8708,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8775,13 +8742,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8808,13 +8775,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8832,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8850,18 +8817,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8872,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -8884,16 +8851,20 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8917,13 +8888,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8941,13 +8912,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -8959,18 +8930,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>173</v>
+        <v>412</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8993,20 +8964,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9030,13 +8997,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9054,7 +9021,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9072,18 +9039,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9106,13 +9073,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9142,10 +9109,10 @@
         <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9163,7 +9130,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9181,18 +9148,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9203,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9182,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9248,13 +9215,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9272,13 +9239,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9299,7 +9266,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>433</v>
       </c>
@@ -9324,7 +9291,7 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>434</v>
@@ -9357,13 +9324,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9399,18 +9366,18 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9421,7 +9388,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9433,15 +9400,17 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -9466,13 +9435,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9490,13 +9459,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9508,16 +9477,16 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>445</v>
       </c>
@@ -9530,7 +9499,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9545,14 +9514,12 @@
         <v>169</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9601,25 +9568,25 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>172</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>449</v>
+        <v>167</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9628,20 +9595,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -9653,15 +9620,17 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -9710,25 +9679,25 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9737,13 +9706,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9756,24 +9725,26 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -9821,7 +9792,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9839,7 +9810,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9848,45 +9819,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -9934,36 +9901,36 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>187</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9971,7 +9938,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -9986,15 +9953,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10019,13 +9988,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10043,10 +10012,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10058,21 +10027,21 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10095,16 +10064,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10130,13 +10099,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10154,7 +10123,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10172,7 +10141,7 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
@@ -10181,9 +10150,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10206,17 +10175,15 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M76" t="s" s="2">
         <v>470</v>
       </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10241,13 +10208,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10265,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10283,7 +10250,7 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
@@ -10292,9 +10259,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10317,13 +10284,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>190</v>
+        <v>472</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10374,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10389,21 +10356,21 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10426,15 +10393,17 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -10483,7 +10452,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10498,148 +10467,19 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>290</v>
+        <v>482</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM79">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +422,51 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>next-visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-care-next-visit}
+</t>
+  </si>
+  <si>
+    <t>Next Appointment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +474,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -553,6 +577,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -957,14 +984,7 @@
     <t>Encounter.period.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
@@ -1645,6 +1665,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1821,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1990,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2210,7 +2245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2541,7 +2576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2763,13 +2798,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2788,17 +2823,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2835,16 +2868,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2865,7 +2896,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2876,43 +2907,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2960,7 +2989,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2969,7 +2998,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -2978,7 +3007,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2987,13 +3016,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3006,22 +3035,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3081,24 +3114,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3106,32 +3139,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3156,13 +3187,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3180,13 +3211,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3195,21 +3226,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3217,31 +3248,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3267,13 +3298,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3291,13 +3322,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3306,19 +3337,19 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -3331,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3351,7 +3382,9 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3400,25 +3433,25 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3427,20 +3460,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3452,17 +3485,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3511,25 +3542,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3538,13 +3569,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3557,26 +3588,24 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3642,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3651,41 +3680,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3709,13 +3742,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3733,25 +3766,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3760,9 +3793,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3785,13 +3818,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3818,13 +3851,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3842,7 +3875,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3860,7 +3893,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3869,9 +3902,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3891,16 +3924,16 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3912,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>79</v>
@@ -3927,13 +3960,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3951,7 +3984,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3969,18 +4002,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3988,10 +4021,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4000,16 +4033,16 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4021,7 +4054,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -4036,13 +4069,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4060,13 +4093,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4078,18 +4111,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4100,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4115,10 +4148,10 @@
         <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4169,25 +4202,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4196,20 +4229,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4221,17 +4254,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4280,25 +4311,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4307,13 +4338,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4326,26 +4357,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4393,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4411,7 +4440,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4420,41 +4449,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4478,13 +4511,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4502,25 +4535,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4529,9 +4562,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4554,13 +4587,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4587,13 +4620,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4611,7 +4644,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4629,7 +4662,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4638,9 +4671,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4648,10 +4681,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4660,20 +4693,18 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4698,13 +4729,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4722,13 +4753,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4737,21 +4768,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4762,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4774,15 +4805,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4807,14 +4840,14 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4831,13 +4864,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4846,21 +4879,21 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4880,16 +4913,16 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4916,13 +4949,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4955,29 +4988,29 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -4989,20 +5022,18 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5027,13 +5058,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5066,32 +5097,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK29" t="s" s="2">
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5103,15 +5134,17 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5160,13 +5193,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5175,10 +5208,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>248</v>
@@ -5187,13 +5220,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5209,16 +5242,16 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5284,25 +5317,25 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5318,16 +5351,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5393,21 +5426,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5418,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5427,16 +5460,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5487,47 +5520,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5539,17 +5572,15 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5598,25 +5629,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5625,13 +5656,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5644,26 +5675,24 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5711,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5729,7 +5758,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5738,13 +5767,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5757,24 +5786,26 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5798,13 +5829,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5822,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5834,24 +5865,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>273</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5862,7 +5893,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5871,18 +5902,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5907,13 +5940,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5931,13 +5964,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -5946,21 +5979,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5980,16 +6013,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6040,7 +6073,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6055,21 +6088,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM38" t="s" s="2">
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>286</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6092,13 +6125,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6149,13 +6182,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6164,21 +6197,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6189,7 +6222,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6198,20 +6231,18 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6260,13 +6291,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6275,21 +6306,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM40" t="s" s="2">
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6312,15 +6343,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6369,7 +6402,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6381,35 +6414,35 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6421,17 +6454,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6468,37 +6499,37 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6507,20 +6538,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6529,19 +6560,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6579,48 +6610,48 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6628,7 +6659,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6643,24 +6674,22 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6704,7 +6733,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6713,7 +6742,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6722,18 +6751,18 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6753,25 +6782,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6815,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6824,38 +6855,38 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6864,19 +6895,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6902,13 +6933,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -6926,13 +6957,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -6941,25 +6972,25 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6978,16 +7009,16 @@
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7013,13 +7044,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7068,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7052,25 +7083,25 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7089,15 +7120,17 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7146,7 +7179,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7161,21 +7194,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7186,7 +7219,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7195,16 +7228,16 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7255,25 +7288,25 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7282,20 +7315,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7307,17 +7340,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7366,25 +7397,25 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7393,13 +7424,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7412,26 +7443,24 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7479,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7497,7 +7526,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7506,43 +7535,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>353</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7590,44 +7621,44 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7639,18 +7670,20 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7675,13 +7708,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7699,10 +7732,10 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7714,19 +7747,19 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>364</v>
       </c>
@@ -7751,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7784,13 +7817,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -7826,7 +7859,7 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7835,7 +7868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>369</v>
       </c>
@@ -7848,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -7868,9 +7901,7 @@
       <c r="L55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -7925,7 +7956,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -7937,18 +7968,18 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7959,7 +7990,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -7971,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>376</v>
@@ -8030,13 +8061,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8088,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>380</v>
       </c>
@@ -8085,12 +8116,14 @@
         <v>169</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8172,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8151,13 +8184,13 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8166,20 +8199,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8191,17 +8224,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8250,25 +8281,25 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8277,13 +8308,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8296,26 +8327,24 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8363,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8381,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
@@ -8390,41 +8419,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8472,36 +8505,36 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8524,7 +8557,7 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>389</v>
@@ -8581,7 +8614,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8599,16 +8632,16 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>392</v>
       </c>
@@ -8633,13 +8666,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8666,13 +8699,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8708,18 +8741,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8742,13 +8775,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8775,13 +8808,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8799,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8817,18 +8850,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>404</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8839,7 +8872,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -8851,20 +8884,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8888,13 +8917,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8912,13 +8941,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -8930,18 +8959,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>173</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8964,16 +8993,20 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -8997,13 +9030,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9021,7 +9054,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9039,18 +9072,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9073,13 +9106,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9109,10 +9142,10 @@
         <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9130,7 +9163,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9148,18 +9181,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9170,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9182,13 +9215,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9215,13 +9248,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9239,13 +9272,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9266,7 +9299,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>433</v>
       </c>
@@ -9291,7 +9324,7 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>434</v>
@@ -9324,13 +9357,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9366,18 +9399,18 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9388,7 +9421,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -9400,17 +9433,15 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -9435,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -9459,13 +9490,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -9477,16 +9508,16 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>445</v>
       </c>
@@ -9499,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -9514,12 +9545,14 @@
         <v>169</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9568,25 +9601,25 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>167</v>
+        <v>449</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9595,20 +9628,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -9620,17 +9653,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -9679,25 +9710,25 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9706,13 +9737,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9725,26 +9756,24 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -9792,7 +9821,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9810,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9819,41 +9848,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -9901,36 +9934,36 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9938,7 +9971,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -9953,17 +9986,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -9988,13 +10019,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10012,10 +10043,10 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -10027,21 +10058,21 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10064,16 +10095,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10099,13 +10130,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10123,7 +10154,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10141,7 +10172,7 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>79</v>
@@ -10150,9 +10181,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10175,15 +10206,17 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10208,13 +10241,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10232,7 +10265,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10250,7 +10283,7 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
@@ -10259,9 +10292,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10284,13 +10317,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>472</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10341,7 +10374,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10356,21 +10389,21 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
         <v>476</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10393,17 +10426,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -10452,7 +10483,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10467,19 +10498,148 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="K79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM79">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI78">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-clinical-encounter.xlsx
+++ b/StructureDefinition-hiv-clinical-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
